--- a/documents/test/4_Testing_Teamleiter_NW.xlsx
+++ b/documents/test/4_Testing_Teamleiter_NW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Startseite wird angezeigt</t>
-  </si>
-  <si>
-    <t>Nein</t>
   </si>
   <si>
     <t>m5</t>
@@ -187,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +194,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,560 +316,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1422,35 +870,35 @@
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="55.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +922,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +945,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +966,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1539,194 +987,194 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="12">
         <v>42614</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="12">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="13">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="12">
         <v>42614</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="12" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="12"/>
+      <c r="E12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="12">
         <v>42614</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="12">
         <v>42614</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="12">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="13">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>45</v>
+      <c r="E15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="12">
         <v>42614</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="12"/>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="12">
         <v>42614</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -1736,18 +1184,18 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -1757,18 +1205,18 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -1778,7 +1226,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1787,7 +1235,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1796,7 +1244,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1805,7 +1253,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1814,7 +1262,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1823,7 +1271,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1832,7 +1280,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1841,7 +1289,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1850,7 +1298,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1859,7 +1307,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1868,7 +1316,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1877,7 +1325,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1886,7 +1334,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1895,7 +1343,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1904,7 +1352,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1913,7 +1361,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1922,7 +1370,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1931,7 +1379,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1940,7 +1388,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1949,7 +1397,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1958,7 +1406,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1967,7 +1415,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1976,7 +1424,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1985,7 +1433,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1994,7 +1442,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2003,7 +1451,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2012,7 +1460,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2021,93 +1469,45 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G8 G11">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+  <conditionalFormatting sqref="G6:G15">
+    <cfRule type="cellIs" dxfId="23" priority="45" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
-      <formula>"Ja"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
-      <formula>"Nein"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
